--- a/平成31年度/シースリーカップ/★収支計算書.xlsx
+++ b/平成31年度/シースリーカップ/★収支計算書.xlsx
@@ -9,24 +9,26 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="18315" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="18315" windowHeight="8505" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="【参考】2018収支報告書" sheetId="4" r:id="rId1"/>
     <sheet name="2019収支予算書_5.16" sheetId="6" r:id="rId2"/>
     <sheet name="2019収支予算書_7.3" sheetId="7" r:id="rId3"/>
+    <sheet name="2019収支予算書_7.9" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">【参考】2018収支報告書!$A$2:$AG$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2019収支予算書_5.16'!$A$2:$AG$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2019収支予算書_7.3'!$A$2:$AG$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'2019収支予算書_7.9'!$A$2:$AG$45</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="68">
   <si>
     <t>平成</t>
     <rPh sb="0" eb="2">
@@ -660,6 +662,23 @@
     <t>シースリー協賛金</t>
     <rPh sb="5" eb="8">
       <t>キョウサンキン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>@2,000×7　＠3,000×1</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>@200×17（ウィザーズ）、＠200×24（チーム配布）、＠200×4（外部審判）</t>
+    <rPh sb="26" eb="28">
+      <t>ハイフ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>シンパン</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -963,7 +982,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1074,6 +1093,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -4386,7 +4420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:AG4"/>
     </sheetView>
   </sheetViews>
@@ -5734,16 +5768,22 @@
     </row>
   </sheetData>
   <mergeCells count="98">
+    <mergeCell ref="A44:AG44"/>
+    <mergeCell ref="A45:AG45"/>
+    <mergeCell ref="D36:N36"/>
+    <mergeCell ref="O36:T36"/>
     <mergeCell ref="A41:AG41"/>
     <mergeCell ref="A42:AG42"/>
     <mergeCell ref="A43:AG43"/>
-    <mergeCell ref="A44:AG44"/>
-    <mergeCell ref="A45:AG45"/>
+    <mergeCell ref="U33:AG33"/>
+    <mergeCell ref="D30:N30"/>
+    <mergeCell ref="O30:T30"/>
     <mergeCell ref="D35:N35"/>
     <mergeCell ref="O35:T35"/>
     <mergeCell ref="U35:AG35"/>
-    <mergeCell ref="D36:N36"/>
-    <mergeCell ref="O36:T36"/>
+    <mergeCell ref="D27:N27"/>
+    <mergeCell ref="O27:T27"/>
+    <mergeCell ref="U27:AG27"/>
     <mergeCell ref="D38:N38"/>
     <mergeCell ref="O38:T38"/>
     <mergeCell ref="D29:N29"/>
@@ -5752,20 +5792,14 @@
     <mergeCell ref="D34:N34"/>
     <mergeCell ref="O34:T34"/>
     <mergeCell ref="U34:AG34"/>
-    <mergeCell ref="D26:N26"/>
-    <mergeCell ref="O26:T26"/>
-    <mergeCell ref="U26:AG26"/>
-    <mergeCell ref="D27:N27"/>
-    <mergeCell ref="O27:T27"/>
-    <mergeCell ref="U27:AG27"/>
     <mergeCell ref="D32:N32"/>
     <mergeCell ref="O32:T32"/>
     <mergeCell ref="U32:AG32"/>
     <mergeCell ref="D33:N33"/>
     <mergeCell ref="O33:T33"/>
-    <mergeCell ref="U33:AG33"/>
-    <mergeCell ref="D30:N30"/>
-    <mergeCell ref="O30:T30"/>
+    <mergeCell ref="D24:N24"/>
+    <mergeCell ref="O24:T24"/>
+    <mergeCell ref="U24:AG24"/>
     <mergeCell ref="U30:AG30"/>
     <mergeCell ref="D31:N31"/>
     <mergeCell ref="O31:T31"/>
@@ -5776,23 +5810,21 @@
     <mergeCell ref="D28:N28"/>
     <mergeCell ref="O28:T28"/>
     <mergeCell ref="U28:AG28"/>
-    <mergeCell ref="D23:N23"/>
-    <mergeCell ref="O23:T23"/>
-    <mergeCell ref="U23:AG23"/>
-    <mergeCell ref="D24:N24"/>
-    <mergeCell ref="O24:T24"/>
-    <mergeCell ref="U24:AG24"/>
-    <mergeCell ref="D21:N21"/>
-    <mergeCell ref="O21:T21"/>
+    <mergeCell ref="D26:N26"/>
+    <mergeCell ref="O26:T26"/>
+    <mergeCell ref="U26:AG26"/>
     <mergeCell ref="U21:AG21"/>
     <mergeCell ref="D22:N22"/>
     <mergeCell ref="O22:T22"/>
     <mergeCell ref="U22:AG22"/>
-    <mergeCell ref="D18:N18"/>
-    <mergeCell ref="O18:T18"/>
+    <mergeCell ref="D23:N23"/>
+    <mergeCell ref="O23:T23"/>
+    <mergeCell ref="U23:AG23"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="D20:N20"/>
     <mergeCell ref="O20:T20"/>
+    <mergeCell ref="D21:N21"/>
+    <mergeCell ref="O21:T21"/>
     <mergeCell ref="U20:AG20"/>
     <mergeCell ref="D16:N16"/>
     <mergeCell ref="O16:T16"/>
@@ -5800,6 +5832,8 @@
     <mergeCell ref="D17:N17"/>
     <mergeCell ref="O17:T17"/>
     <mergeCell ref="U17:AG17"/>
+    <mergeCell ref="D18:N18"/>
+    <mergeCell ref="O18:T18"/>
     <mergeCell ref="D14:N14"/>
     <mergeCell ref="O14:T14"/>
     <mergeCell ref="U14:AG14"/>
@@ -5824,14 +5858,14 @@
     <mergeCell ref="D9:N9"/>
     <mergeCell ref="O9:T9"/>
     <mergeCell ref="U9:AG9"/>
+    <mergeCell ref="D7:N7"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="U7:AG7"/>
     <mergeCell ref="A4:AG4"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:N6"/>
     <mergeCell ref="O6:T6"/>
     <mergeCell ref="U6:AG6"/>
-    <mergeCell ref="D7:N7"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="U7:AG7"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations count="2">
@@ -5842,4 +5876,1466 @@
   <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="2.625" style="2"/>
+    <col min="4" max="14" width="3.25" style="2" customWidth="1"/>
+    <col min="15" max="20" width="2.625" style="2"/>
+    <col min="21" max="33" width="3.375" style="2" customWidth="1"/>
+    <col min="34" max="16384" width="2.625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="2" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>7</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>9</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:33" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
+    </row>
+    <row r="5" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="29"/>
+    </row>
+    <row r="7" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D7" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="30">
+        <v>60000</v>
+      </c>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+    </row>
+    <row r="8" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D8" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="8">
+        <v>50000</v>
+      </c>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+    </row>
+    <row r="9" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D9" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="8">
+        <v>30000</v>
+      </c>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+    </row>
+    <row r="10" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="25"/>
+      <c r="AD10" s="25"/>
+      <c r="AE10" s="25"/>
+      <c r="AF10" s="25"/>
+      <c r="AG10" s="25"/>
+    </row>
+    <row r="11" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+    </row>
+    <row r="12" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+    </row>
+    <row r="13" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="25"/>
+      <c r="AE13" s="25"/>
+      <c r="AF13" s="25"/>
+      <c r="AG13" s="25"/>
+    </row>
+    <row r="14" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="25"/>
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="25"/>
+      <c r="AG14" s="25"/>
+    </row>
+    <row r="15" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="25"/>
+      <c r="AF15" s="25"/>
+      <c r="AG15" s="25"/>
+    </row>
+    <row r="16" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="25"/>
+    </row>
+    <row r="17" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="25"/>
+      <c r="AE17" s="25"/>
+      <c r="AF17" s="25"/>
+      <c r="AG17" s="25"/>
+    </row>
+    <row r="18" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D18" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="22">
+        <f>SUM(O7:T17)</f>
+        <v>140000</v>
+      </c>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+    </row>
+    <row r="20" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="29"/>
+      <c r="AG20" s="29"/>
+    </row>
+    <row r="21" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="30">
+        <v>21200</v>
+      </c>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="27"/>
+      <c r="AG21" s="27"/>
+    </row>
+    <row r="22" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="8">
+        <v>1000</v>
+      </c>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="12"/>
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="13"/>
+    </row>
+    <row r="23" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="8">
+        <v>1000</v>
+      </c>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="25"/>
+      <c r="AC23" s="25"/>
+      <c r="AD23" s="25"/>
+      <c r="AE23" s="25"/>
+      <c r="AF23" s="25"/>
+      <c r="AG23" s="25"/>
+    </row>
+    <row r="24" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="8">
+        <v>3800</v>
+      </c>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="9"/>
+      <c r="AG24" s="9"/>
+    </row>
+    <row r="25" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="8">
+        <v>12000</v>
+      </c>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="10"/>
+      <c r="AG25" s="10"/>
+    </row>
+    <row r="26" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D26" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="14">
+        <v>3000</v>
+      </c>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="19"/>
+      <c r="AD26" s="19"/>
+      <c r="AE26" s="19"/>
+      <c r="AF26" s="19"/>
+      <c r="AG26" s="20"/>
+    </row>
+    <row r="27" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D27" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="14">
+        <v>17000</v>
+      </c>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="37"/>
+      <c r="AA27" s="37"/>
+      <c r="AB27" s="37"/>
+      <c r="AC27" s="37"/>
+      <c r="AD27" s="37"/>
+      <c r="AE27" s="37"/>
+      <c r="AF27" s="37"/>
+      <c r="AG27" s="38"/>
+    </row>
+    <row r="28" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D28" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="14">
+        <v>9000</v>
+      </c>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="V28" s="40"/>
+      <c r="W28" s="40"/>
+      <c r="X28" s="40"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="40"/>
+      <c r="AA28" s="40"/>
+      <c r="AB28" s="40"/>
+      <c r="AC28" s="40"/>
+      <c r="AD28" s="40"/>
+      <c r="AE28" s="40"/>
+      <c r="AF28" s="40"/>
+      <c r="AG28" s="41"/>
+    </row>
+    <row r="29" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D29" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="33">
+        <v>10000</v>
+      </c>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="34"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="19"/>
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="19"/>
+      <c r="AF29" s="19"/>
+      <c r="AG29" s="20"/>
+    </row>
+    <row r="30" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="25"/>
+      <c r="AA30" s="25"/>
+      <c r="AB30" s="25"/>
+      <c r="AC30" s="25"/>
+      <c r="AD30" s="25"/>
+      <c r="AE30" s="25"/>
+      <c r="AF30" s="25"/>
+      <c r="AG30" s="25"/>
+    </row>
+    <row r="31" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="25"/>
+      <c r="W31" s="25"/>
+      <c r="X31" s="25"/>
+      <c r="Y31" s="25"/>
+      <c r="Z31" s="25"/>
+      <c r="AA31" s="25"/>
+      <c r="AB31" s="25"/>
+      <c r="AC31" s="25"/>
+      <c r="AD31" s="25"/>
+      <c r="AE31" s="25"/>
+      <c r="AF31" s="25"/>
+      <c r="AG31" s="25"/>
+    </row>
+    <row r="32" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="25"/>
+      <c r="Z32" s="25"/>
+      <c r="AA32" s="25"/>
+      <c r="AB32" s="25"/>
+      <c r="AC32" s="25"/>
+      <c r="AD32" s="25"/>
+      <c r="AE32" s="25"/>
+      <c r="AF32" s="25"/>
+      <c r="AG32" s="25"/>
+    </row>
+    <row r="33" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="25"/>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="25"/>
+      <c r="AB33" s="25"/>
+      <c r="AC33" s="25"/>
+      <c r="AD33" s="25"/>
+      <c r="AE33" s="25"/>
+      <c r="AF33" s="25"/>
+      <c r="AG33" s="25"/>
+    </row>
+    <row r="34" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D34" s="18"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="19"/>
+      <c r="Z34" s="19"/>
+      <c r="AA34" s="19"/>
+      <c r="AB34" s="19"/>
+      <c r="AC34" s="19"/>
+      <c r="AD34" s="19"/>
+      <c r="AE34" s="19"/>
+      <c r="AF34" s="19"/>
+      <c r="AG34" s="20"/>
+    </row>
+    <row r="35" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D35" s="18"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="19"/>
+      <c r="Z35" s="19"/>
+      <c r="AA35" s="19"/>
+      <c r="AB35" s="19"/>
+      <c r="AC35" s="19"/>
+      <c r="AD35" s="19"/>
+      <c r="AE35" s="19"/>
+      <c r="AF35" s="19"/>
+      <c r="AG35" s="20"/>
+    </row>
+    <row r="36" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D36" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="22">
+        <f>SUM(O21:T35)</f>
+        <v>78000</v>
+      </c>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+    </row>
+    <row r="38" spans="1:33" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D38" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="24">
+        <f>O18-O36</f>
+        <v>62000</v>
+      </c>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="24"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="24"/>
+      <c r="V38" s="3"/>
+    </row>
+    <row r="39" spans="1:33" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="17"/>
+      <c r="V41" s="17"/>
+      <c r="W41" s="17"/>
+      <c r="X41" s="17"/>
+      <c r="Y41" s="17"/>
+      <c r="Z41" s="17"/>
+      <c r="AA41" s="17"/>
+      <c r="AB41" s="17"/>
+      <c r="AC41" s="17"/>
+      <c r="AD41" s="17"/>
+      <c r="AE41" s="17"/>
+      <c r="AF41" s="17"/>
+      <c r="AG41" s="17"/>
+    </row>
+    <row r="42" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="5"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6"/>
+      <c r="AC42" s="6"/>
+      <c r="AD42" s="6"/>
+      <c r="AE42" s="6"/>
+      <c r="AF42" s="6"/>
+      <c r="AG42" s="6"/>
+    </row>
+    <row r="43" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="6"/>
+      <c r="AC43" s="6"/>
+      <c r="AD43" s="6"/>
+      <c r="AE43" s="6"/>
+      <c r="AF43" s="6"/>
+      <c r="AG43" s="6"/>
+    </row>
+    <row r="44" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="5"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="6"/>
+      <c r="AB44" s="6"/>
+      <c r="AC44" s="6"/>
+      <c r="AD44" s="6"/>
+      <c r="AE44" s="6"/>
+      <c r="AF44" s="6"/>
+      <c r="AG44" s="6"/>
+    </row>
+    <row r="45" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="5"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="6"/>
+      <c r="AC45" s="6"/>
+      <c r="AD45" s="6"/>
+      <c r="AE45" s="6"/>
+      <c r="AF45" s="6"/>
+      <c r="AG45" s="6"/>
+    </row>
+    <row r="46" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4"/>
+      <c r="AA46" s="4"/>
+      <c r="AB46" s="4"/>
+      <c r="AC46" s="4"/>
+      <c r="AD46" s="4"/>
+      <c r="AE46" s="4"/>
+      <c r="AF46" s="4"/>
+      <c r="AG46" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="98">
+    <mergeCell ref="D7:N7"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="U7:AG7"/>
+    <mergeCell ref="A4:AG4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:N6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="U6:AG6"/>
+    <mergeCell ref="D8:N8"/>
+    <mergeCell ref="O8:T8"/>
+    <mergeCell ref="U8:AG8"/>
+    <mergeCell ref="D9:N9"/>
+    <mergeCell ref="O9:T9"/>
+    <mergeCell ref="U9:AG9"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O10:T10"/>
+    <mergeCell ref="U10:AG10"/>
+    <mergeCell ref="D11:N11"/>
+    <mergeCell ref="O11:T11"/>
+    <mergeCell ref="U11:AG11"/>
+    <mergeCell ref="D12:N12"/>
+    <mergeCell ref="O12:T12"/>
+    <mergeCell ref="U12:AG12"/>
+    <mergeCell ref="D13:N13"/>
+    <mergeCell ref="O13:T13"/>
+    <mergeCell ref="U13:AG13"/>
+    <mergeCell ref="D14:N14"/>
+    <mergeCell ref="O14:T14"/>
+    <mergeCell ref="U14:AG14"/>
+    <mergeCell ref="D15:N15"/>
+    <mergeCell ref="O15:T15"/>
+    <mergeCell ref="U15:AG15"/>
+    <mergeCell ref="U20:AG20"/>
+    <mergeCell ref="D16:N16"/>
+    <mergeCell ref="O16:T16"/>
+    <mergeCell ref="U16:AG16"/>
+    <mergeCell ref="D17:N17"/>
+    <mergeCell ref="O17:T17"/>
+    <mergeCell ref="U17:AG17"/>
+    <mergeCell ref="D18:N18"/>
+    <mergeCell ref="O18:T18"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:N20"/>
+    <mergeCell ref="O20:T20"/>
+    <mergeCell ref="D21:N21"/>
+    <mergeCell ref="O21:T21"/>
+    <mergeCell ref="U21:AG21"/>
+    <mergeCell ref="D22:N22"/>
+    <mergeCell ref="O22:T22"/>
+    <mergeCell ref="U22:AG22"/>
+    <mergeCell ref="D23:N23"/>
+    <mergeCell ref="O23:T23"/>
+    <mergeCell ref="U23:AG23"/>
+    <mergeCell ref="D24:N24"/>
+    <mergeCell ref="O24:T24"/>
+    <mergeCell ref="U24:AG24"/>
+    <mergeCell ref="D25:N25"/>
+    <mergeCell ref="O25:T25"/>
+    <mergeCell ref="U25:AG25"/>
+    <mergeCell ref="D26:N26"/>
+    <mergeCell ref="O26:T26"/>
+    <mergeCell ref="U26:AG26"/>
+    <mergeCell ref="D27:N27"/>
+    <mergeCell ref="O27:T27"/>
+    <mergeCell ref="U27:AG27"/>
+    <mergeCell ref="D28:N28"/>
+    <mergeCell ref="O28:T28"/>
+    <mergeCell ref="U28:AG28"/>
+    <mergeCell ref="D29:N29"/>
+    <mergeCell ref="O29:T29"/>
+    <mergeCell ref="U29:AG29"/>
+    <mergeCell ref="D30:N30"/>
+    <mergeCell ref="O30:T30"/>
+    <mergeCell ref="U30:AG30"/>
+    <mergeCell ref="D31:N31"/>
+    <mergeCell ref="O31:T31"/>
+    <mergeCell ref="U31:AG31"/>
+    <mergeCell ref="D32:N32"/>
+    <mergeCell ref="O32:T32"/>
+    <mergeCell ref="U32:AG32"/>
+    <mergeCell ref="D38:N38"/>
+    <mergeCell ref="O38:T38"/>
+    <mergeCell ref="D33:N33"/>
+    <mergeCell ref="O33:T33"/>
+    <mergeCell ref="U33:AG33"/>
+    <mergeCell ref="D34:N34"/>
+    <mergeCell ref="O34:T34"/>
+    <mergeCell ref="U34:AG34"/>
+    <mergeCell ref="D35:N35"/>
+    <mergeCell ref="O35:T35"/>
+    <mergeCell ref="U35:AG35"/>
+    <mergeCell ref="D36:N36"/>
+    <mergeCell ref="O36:T36"/>
+    <mergeCell ref="A41:AG41"/>
+    <mergeCell ref="A42:AG42"/>
+    <mergeCell ref="A43:AG43"/>
+    <mergeCell ref="A44:AG44"/>
+    <mergeCell ref="A45:AG45"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <dataValidations count="2">
+    <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O7:T18 P21:T25 O21:O28 O29:T36"/>
+    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41:AG41 D7:N17 A41:A43 U7:AG17 U21:AG35 D21:N35"/>
+  </dataValidations>
+  <pageMargins left="0.34" right="0.16" top="0.64" bottom="0.23" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>